--- a/Code/Results/Cases/Case_8_42/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_8_42/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.023884415896897</v>
+        <v>1.019890842493362</v>
       </c>
       <c r="D2">
-        <v>1.041085326399567</v>
+        <v>1.037265280483172</v>
       </c>
       <c r="E2">
-        <v>1.036857103948492</v>
+        <v>1.033519941080889</v>
       </c>
       <c r="F2">
-        <v>1.047127924930036</v>
+        <v>1.044061031156675</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.054466694555606</v>
+        <v>1.052368152581417</v>
       </c>
       <c r="J2">
-        <v>1.045373483632525</v>
+        <v>1.041492472854227</v>
       </c>
       <c r="K2">
-        <v>1.052000480750204</v>
+        <v>1.048228760989284</v>
       </c>
       <c r="L2">
-        <v>1.0478257744605</v>
+        <v>1.044531236164209</v>
       </c>
       <c r="M2">
-        <v>1.057967533223616</v>
+        <v>1.054938846293841</v>
       </c>
       <c r="N2">
-        <v>1.046858033885298</v>
+        <v>1.032861393245175</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.054449672522854</v>
+        <v>1.052052711320731</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.047839065900611</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.045180866591797</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.024786354650208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.027226322651228</v>
+        <v>1.023001373150941</v>
       </c>
       <c r="D3">
-        <v>1.043307151337022</v>
+        <v>1.039259766763276</v>
       </c>
       <c r="E3">
-        <v>1.039410850856655</v>
+        <v>1.03587425304706</v>
       </c>
       <c r="F3">
-        <v>1.049540278376486</v>
+        <v>1.046292004229667</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.055224508712836</v>
+        <v>1.052995640927547</v>
       </c>
       <c r="J3">
-        <v>1.047001318648431</v>
+        <v>1.042884049715055</v>
       </c>
       <c r="K3">
-        <v>1.053414346232783</v>
+        <v>1.049413795480448</v>
       </c>
       <c r="L3">
-        <v>1.049563123221309</v>
+        <v>1.04606780461285</v>
       </c>
       <c r="M3">
-        <v>1.059576218637485</v>
+        <v>1.056364946754015</v>
       </c>
       <c r="N3">
-        <v>1.048488180613641</v>
+        <v>1.033641580237235</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.055722814074387</v>
+        <v>1.053181355655631</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.048836134089122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.046015860064815</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.025009194638967</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.029355858455621</v>
+        <v>1.024984579628196</v>
       </c>
       <c r="D4">
-        <v>1.044727179312264</v>
+        <v>1.040535573314279</v>
       </c>
       <c r="E4">
-        <v>1.041043776902087</v>
+        <v>1.037380918399059</v>
       </c>
       <c r="F4">
-        <v>1.051083410652109</v>
+        <v>1.047720243033325</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.055700774840468</v>
+        <v>1.053389133471626</v>
       </c>
       <c r="J4">
-        <v>1.048037322868566</v>
+        <v>1.043770072710037</v>
       </c>
       <c r="K4">
-        <v>1.054314169094378</v>
+        <v>1.050168198356936</v>
       </c>
       <c r="L4">
-        <v>1.050670844947625</v>
+        <v>1.047048187957816</v>
       </c>
       <c r="M4">
-        <v>1.060602048841324</v>
+        <v>1.05727492034949</v>
       </c>
       <c r="N4">
-        <v>1.049525656078601</v>
+        <v>1.034138326234547</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.056534672786607</v>
+        <v>1.053901526017687</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.049473254113221</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.046550245828542</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.025148860621837</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.030246397872576</v>
+        <v>1.025814054010215</v>
       </c>
       <c r="D5">
-        <v>1.045323867733887</v>
+        <v>1.041072072955485</v>
       </c>
       <c r="E5">
-        <v>1.041728427397183</v>
+        <v>1.038012863328373</v>
       </c>
       <c r="F5">
-        <v>1.051730708068238</v>
+        <v>1.048319591244431</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.019999999999999</v>
+      </c>
       <c r="I5">
-        <v>1.055899739489056</v>
+        <v>1.053553505653208</v>
       </c>
       <c r="J5">
-        <v>1.048471684236055</v>
+        <v>1.044141734744825</v>
       </c>
       <c r="K5">
-        <v>1.054692721427926</v>
+        <v>1.050486008274357</v>
       </c>
       <c r="L5">
-        <v>1.051135374013637</v>
+        <v>1.047459515215106</v>
       </c>
       <c r="M5">
-        <v>1.061032471014564</v>
+        <v>1.057656949775643</v>
       </c>
       <c r="N5">
-        <v>1.049960634289053</v>
+        <v>1.03434669682086</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.056875315639749</v>
+        <v>1.054203871146722</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.049747993110506</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.046782762191761</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.025207640645148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.03039907743867</v>
+        <v>1.025956127358805</v>
       </c>
       <c r="D6">
-        <v>1.045428489777662</v>
+        <v>1.041166352002353</v>
       </c>
       <c r="E6">
-        <v>1.041846444837114</v>
+        <v>1.038121739038492</v>
       </c>
       <c r="F6">
-        <v>1.051842478041653</v>
+        <v>1.048423075709258</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.055935477175167</v>
+        <v>1.053583265882985</v>
       </c>
       <c r="J6">
-        <v>1.048547895946021</v>
+        <v>1.044207068167714</v>
       </c>
       <c r="K6">
-        <v>1.0547607030075</v>
+        <v>1.050543553396347</v>
       </c>
       <c r="L6">
-        <v>1.051216437448858</v>
+        <v>1.047531354213026</v>
       </c>
       <c r="M6">
-        <v>1.061107828437916</v>
+        <v>1.057723947427241</v>
       </c>
       <c r="N6">
-        <v>1.050036954228389</v>
+        <v>1.034383325665447</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.056934954669918</v>
+        <v>1.054256894310586</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.049804691702879</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.046832967398852</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.025218830794691</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.029377470058624</v>
+        <v>1.025021605368941</v>
       </c>
       <c r="D7">
-        <v>1.044747716280974</v>
+        <v>1.040567189794463</v>
       </c>
       <c r="E7">
-        <v>1.041061893789544</v>
+        <v>1.037412131683427</v>
       </c>
       <c r="F7">
-        <v>1.051101018458734</v>
+        <v>1.047748482529875</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.055710232954243</v>
+        <v>1.053406352914096</v>
       </c>
       <c r="J7">
-        <v>1.048052595925677</v>
+        <v>1.043800347480179</v>
       </c>
       <c r="K7">
-        <v>1.054331653091825</v>
+        <v>1.050196623320238</v>
       </c>
       <c r="L7">
-        <v>1.050685920046462</v>
+        <v>1.047076200054766</v>
       </c>
       <c r="M7">
-        <v>1.060616660895648</v>
+        <v>1.057300036325987</v>
       </c>
       <c r="N7">
-        <v>1.049540950825204</v>
+        <v>1.03420691699637</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.056546236997877</v>
+        <v>1.053921403268109</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.049505468402163</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.046592233007663</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.025157442464284</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.025032892463976</v>
+        <v>1.021012892963101</v>
       </c>
       <c r="D8">
-        <v>1.041855484727519</v>
+        <v>1.037996487630866</v>
       </c>
       <c r="E8">
-        <v>1.037735474908829</v>
+        <v>1.034374992670259</v>
       </c>
       <c r="F8">
-        <v>1.047958088283008</v>
+        <v>1.044865891725329</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.054734210053494</v>
+        <v>1.052617926283411</v>
       </c>
       <c r="J8">
-        <v>1.04593905106846</v>
+        <v>1.042028631698814</v>
       </c>
       <c r="K8">
-        <v>1.052496842610838</v>
+        <v>1.048685241296948</v>
       </c>
       <c r="L8">
-        <v>1.04842745014568</v>
+        <v>1.045108625834652</v>
       </c>
       <c r="M8">
-        <v>1.058525379194359</v>
+        <v>1.055470578132118</v>
       </c>
       <c r="N8">
-        <v>1.047424404491863</v>
+        <v>1.033318433373886</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.054891161745895</v>
+        <v>1.052473534695935</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.0482126450715</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.045528556485264</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.024880038116972</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.017100075766759</v>
+        <v>1.013646473758225</v>
       </c>
       <c r="D9">
-        <v>1.036599634852985</v>
+        <v>1.033291648817084</v>
       </c>
       <c r="E9">
-        <v>1.031704872576506</v>
+        <v>1.028831569519344</v>
       </c>
       <c r="F9">
-        <v>1.042264470317937</v>
+        <v>1.039614195839097</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.052893564965957</v>
+        <v>1.051093493940021</v>
       </c>
       <c r="J9">
-        <v>1.042063108126787</v>
+        <v>1.0387263750964</v>
       </c>
       <c r="K9">
-        <v>1.04912556114704</v>
+        <v>1.045866734896979</v>
       </c>
       <c r="L9">
-        <v>1.044303681999921</v>
+        <v>1.041473573856701</v>
       </c>
       <c r="M9">
-        <v>1.05470713141169</v>
+        <v>1.052095668861908</v>
       </c>
       <c r="N9">
-        <v>1.043542957266637</v>
+        <v>1.03148586233088</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.051869327383648</v>
+        <v>1.04980255895486</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.045825849397262</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.043532302827338</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.024337142717624</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.011674236759243</v>
+        <v>1.008691062210347</v>
       </c>
       <c r="D10">
-        <v>1.033048280150519</v>
+        <v>1.030176450184323</v>
       </c>
       <c r="E10">
-        <v>1.027634374003972</v>
+        <v>1.025163937329703</v>
       </c>
       <c r="F10">
-        <v>1.038455785968116</v>
+        <v>1.036165013719005</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.051622577636327</v>
+        <v>1.050078834358832</v>
       </c>
       <c r="J10">
-        <v>1.039432208649182</v>
+        <v>1.036564050909312</v>
       </c>
       <c r="K10">
-        <v>1.046845418606882</v>
+        <v>1.044021427655133</v>
       </c>
       <c r="L10">
-        <v>1.041521985132568</v>
+        <v>1.039093242063677</v>
       </c>
       <c r="M10">
-        <v>1.052163769369945</v>
+        <v>1.049910619574389</v>
       </c>
       <c r="N10">
-        <v>1.040908321610005</v>
+        <v>1.030503749229004</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.049907190062572</v>
+        <v>1.048124102188209</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.044230296588607</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.042245894760064</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.023984219297381</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.009688854418618</v>
+        <v>1.006963893018406</v>
       </c>
       <c r="D11">
-        <v>1.031893279578058</v>
+        <v>1.029238794399203</v>
       </c>
       <c r="E11">
-        <v>1.026325758419411</v>
+        <v>1.024074862415219</v>
       </c>
       <c r="F11">
-        <v>1.037477749208764</v>
+        <v>1.03537765967499</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.051310765053674</v>
+        <v>1.049901649754595</v>
       </c>
       <c r="J11">
-        <v>1.038664047591311</v>
+        <v>1.036049808368987</v>
       </c>
       <c r="K11">
-        <v>1.046237797331178</v>
+        <v>1.043629600693245</v>
       </c>
       <c r="L11">
-        <v>1.040767719084005</v>
+        <v>1.038556608518499</v>
       </c>
       <c r="M11">
-        <v>1.05172588518105</v>
+        <v>1.04966188314531</v>
       </c>
       <c r="N11">
-        <v>1.040139069675322</v>
+        <v>1.030654999624505</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.049991147026929</v>
+        <v>1.048358547473546</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.04383315020257</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.042004577620807</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.023961610556211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.009094456104311</v>
+        <v>1.006443490313892</v>
       </c>
       <c r="D12">
-        <v>1.031605080539541</v>
+        <v>1.029010131214226</v>
       </c>
       <c r="E12">
-        <v>1.026011079043508</v>
+        <v>1.023822011274669</v>
       </c>
       <c r="F12">
-        <v>1.037364437843745</v>
+        <v>1.035318209630385</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.051285380157433</v>
+        <v>1.049912893946313</v>
       </c>
       <c r="J12">
-        <v>1.03851884778502</v>
+        <v>1.035977631544086</v>
       </c>
       <c r="K12">
-        <v>1.046150832722235</v>
+        <v>1.043601876753203</v>
       </c>
       <c r="L12">
-        <v>1.040656356782152</v>
+        <v>1.03850662058908</v>
       </c>
       <c r="M12">
-        <v>1.051809174480867</v>
+        <v>1.049798669092441</v>
       </c>
       <c r="N12">
-        <v>1.039993663668651</v>
+        <v>1.030805577346541</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.050379536169992</v>
+        <v>1.048789778098528</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.04377166476033</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.041984976644319</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.023990848241797</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.009543904249115</v>
+        <v>1.006812915095786</v>
       </c>
       <c r="D13">
-        <v>1.031980950101492</v>
+        <v>1.02931507019928</v>
       </c>
       <c r="E13">
-        <v>1.02645289660677</v>
+        <v>1.024194032831712</v>
       </c>
       <c r="F13">
-        <v>1.037928262337704</v>
+        <v>1.035822170105784</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.051491791549599</v>
+        <v>1.050074400816878</v>
       </c>
       <c r="J13">
-        <v>1.038858604855685</v>
+        <v>1.036240135522776</v>
       </c>
       <c r="K13">
-        <v>1.046477998765865</v>
+        <v>1.043859171672122</v>
       </c>
       <c r="L13">
-        <v>1.041047868688376</v>
+        <v>1.038829413431978</v>
       </c>
       <c r="M13">
-        <v>1.052321468063407</v>
+        <v>1.050251972650647</v>
       </c>
       <c r="N13">
-        <v>1.040333903233327</v>
+        <v>1.030910563861158</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.051058355547723</v>
+        <v>1.049422356085968</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.044000513641095</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.042164176860783</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.024064905601557</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.010333205033452</v>
+        <v>1.007478686783963</v>
       </c>
       <c r="D14">
-        <v>1.032547123110405</v>
+        <v>1.029774417526461</v>
       </c>
       <c r="E14">
-        <v>1.027106166576678</v>
+        <v>1.024741047922401</v>
       </c>
       <c r="F14">
-        <v>1.038631208376984</v>
+        <v>1.036433520288152</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.051742060279575</v>
+        <v>1.05025784523476</v>
       </c>
       <c r="J14">
-        <v>1.039317389818217</v>
+        <v>1.036578834114766</v>
       </c>
       <c r="K14">
-        <v>1.046896486105257</v>
+        <v>1.044172121206294</v>
       </c>
       <c r="L14">
-        <v>1.041550709297034</v>
+        <v>1.039227372986098</v>
       </c>
       <c r="M14">
-        <v>1.052875667245678</v>
+        <v>1.050715688824309</v>
       </c>
       <c r="N14">
-        <v>1.040793339723129</v>
+        <v>1.030966501438954</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.051668173475758</v>
+        <v>1.049960871703961</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.044297798963679</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.042386982065081</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.024138479009788</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.010757254761537</v>
+        <v>1.007840544151893</v>
       </c>
       <c r="D15">
-        <v>1.032836524663984</v>
+        <v>1.030010513158023</v>
       </c>
       <c r="E15">
-        <v>1.027436846522887</v>
+        <v>1.025018588177195</v>
       </c>
       <c r="F15">
-        <v>1.038961077401489</v>
+        <v>1.03671746305611</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.051857691589867</v>
+        <v>1.050340391458314</v>
       </c>
       <c r="J15">
-        <v>1.03954084230531</v>
+        <v>1.036741607803396</v>
       </c>
       <c r="K15">
-        <v>1.047096027298077</v>
+        <v>1.044318918415248</v>
       </c>
       <c r="L15">
-        <v>1.041790090869459</v>
+        <v>1.039414229997928</v>
       </c>
       <c r="M15">
-        <v>1.05311577662256</v>
+        <v>1.050910369370522</v>
       </c>
       <c r="N15">
-        <v>1.041017109538385</v>
+        <v>1.030978489807264</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.051895179552578</v>
+        <v>1.050152015107858</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.044444678434785</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.042497148182148</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.02416899745683</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.012966701938371</v>
+        <v>1.009758071274302</v>
       </c>
       <c r="D16">
-        <v>1.034271121683735</v>
+        <v>1.031194823178279</v>
       </c>
       <c r="E16">
-        <v>1.029076989632377</v>
+        <v>1.026410697578035</v>
       </c>
       <c r="F16">
-        <v>1.04048621775653</v>
+        <v>1.038027174084553</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.052370970872038</v>
+        <v>1.050700298303711</v>
       </c>
       <c r="J16">
-        <v>1.040599968707808</v>
+        <v>1.037514246871529</v>
       </c>
       <c r="K16">
-        <v>1.048013049343135</v>
+        <v>1.044987703976998</v>
       </c>
       <c r="L16">
-        <v>1.042905176534897</v>
+        <v>1.04028360103369</v>
       </c>
       <c r="M16">
-        <v>1.054126384720802</v>
+        <v>1.051707416082809</v>
       </c>
       <c r="N16">
-        <v>1.042077740021858</v>
+        <v>1.03101172663092</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.052655582020291</v>
+        <v>1.050743564079626</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.045096160850305</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.04297343089815</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.024286548813112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.014249972053994</v>
+        <v>1.010898187479597</v>
       </c>
       <c r="D17">
-        <v>1.035076422223827</v>
+        <v>1.031875717324746</v>
       </c>
       <c r="E17">
-        <v>1.029994302798781</v>
+        <v>1.027206655970176</v>
       </c>
       <c r="F17">
-        <v>1.041285363641083</v>
+        <v>1.038720006030058</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.052631425537097</v>
+        <v>1.050885715779356</v>
       </c>
       <c r="J17">
-        <v>1.041171348064662</v>
+        <v>1.037943911774503</v>
       </c>
       <c r="K17">
-        <v>1.048496170041887</v>
+        <v>1.045347016613248</v>
       </c>
       <c r="L17">
-        <v>1.043496096724559</v>
+        <v>1.040753897059832</v>
       </c>
       <c r="M17">
-        <v>1.054606265520052</v>
+        <v>1.052081564687884</v>
       </c>
       <c r="N17">
-        <v>1.042649930802937</v>
+        <v>1.031066861325211</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.052907034267762</v>
+        <v>1.050911246927428</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.045440295426402</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.043230284836597</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.024340559719178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.014845431186273</v>
+        <v>1.011445593760437</v>
       </c>
       <c r="D18">
-        <v>1.035395786555823</v>
+        <v>1.032153124154753</v>
       </c>
       <c r="E18">
-        <v>1.030354451007842</v>
+        <v>1.027526432783888</v>
       </c>
       <c r="F18">
-        <v>1.041499803662653</v>
+        <v>1.038898298218419</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.052687866384308</v>
+        <v>1.050917615232894</v>
       </c>
       <c r="J18">
-        <v>1.041359094207247</v>
+        <v>1.038083066371957</v>
       </c>
       <c r="K18">
-        <v>1.048630287006302</v>
+        <v>1.045439010498941</v>
       </c>
       <c r="L18">
-        <v>1.043669019387443</v>
+        <v>1.040886357880098</v>
       </c>
       <c r="M18">
-        <v>1.05463868426439</v>
+        <v>1.052077755873402</v>
       </c>
       <c r="N18">
-        <v>1.042837943566579</v>
+        <v>1.031063492628857</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.05269743204887</v>
+        <v>1.050672592264816</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.04552362380433</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.043282679269953</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.024334100438267</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.014832848548723</v>
+        <v>1.011455956836991</v>
       </c>
       <c r="D19">
-        <v>1.035294168223296</v>
+        <v>1.032073144146978</v>
       </c>
       <c r="E19">
-        <v>1.030222156224553</v>
+        <v>1.02741433647796</v>
       </c>
       <c r="F19">
-        <v>1.041196178973753</v>
+        <v>1.038611548031362</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.052572487375923</v>
+        <v>1.050815872124633</v>
       </c>
       <c r="J19">
-        <v>1.041215543826563</v>
+        <v>1.037960909929966</v>
       </c>
       <c r="K19">
-        <v>1.048468841859643</v>
+        <v>1.04529860079466</v>
       </c>
       <c r="L19">
-        <v>1.043476979822852</v>
+        <v>1.040713966708699</v>
       </c>
       <c r="M19">
-        <v>1.054278842339577</v>
+        <v>1.051734340380063</v>
       </c>
       <c r="N19">
-        <v>1.042694189327888</v>
+        <v>1.030972082968629</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.05209124217291</v>
+        <v>1.0500787468319</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.045415797183088</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.043190359796515</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.024276954817193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.013103946140077</v>
+        <v>1.00994542534054</v>
       </c>
       <c r="D20">
-        <v>1.033998048490375</v>
+        <v>1.030973855178177</v>
       </c>
       <c r="E20">
-        <v>1.028709874304525</v>
+        <v>1.026089535248456</v>
       </c>
       <c r="F20">
-        <v>1.039464522065375</v>
+        <v>1.037043253513787</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.051972206771041</v>
+        <v>1.050334909450095</v>
       </c>
       <c r="J20">
-        <v>1.040138913484629</v>
+        <v>1.037098278498333</v>
       </c>
       <c r="K20">
-        <v>1.047468313587697</v>
+        <v>1.044493087158482</v>
       </c>
       <c r="L20">
-        <v>1.042266006221631</v>
+        <v>1.039688636763504</v>
       </c>
       <c r="M20">
-        <v>1.052847202032243</v>
+        <v>1.050464581548416</v>
       </c>
       <c r="N20">
-        <v>1.041616030047378</v>
+        <v>1.030610116938676</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.050437641885837</v>
+        <v>1.048552071750708</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.044712274480866</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.042625109206848</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.024074190040978</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.008962827792299</v>
+        <v>1.006406356192182</v>
       </c>
       <c r="D21">
-        <v>1.031267884633789</v>
+        <v>1.02875796354081</v>
       </c>
       <c r="E21">
-        <v>1.025581094764537</v>
+        <v>1.023476337444439</v>
       </c>
       <c r="F21">
-        <v>1.036490179761143</v>
+        <v>1.034514402774429</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.050958919682845</v>
+        <v>1.049642434503328</v>
       </c>
       <c r="J21">
-        <v>1.038090538358441</v>
+        <v>1.035638650880288</v>
       </c>
       <c r="K21">
-        <v>1.045680141434887</v>
+        <v>1.043214248767861</v>
       </c>
       <c r="L21">
-        <v>1.040093508770476</v>
+        <v>1.038026187344087</v>
       </c>
       <c r="M21">
-        <v>1.050811712223229</v>
+        <v>1.048870120032892</v>
       </c>
       <c r="N21">
-        <v>1.039564745993559</v>
+        <v>1.030593598673103</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.048786405564168</v>
+        <v>1.047249781335192</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.043451184592468</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.041724451756953</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.023842647413049</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.006329467014898</v>
+        <v>1.004140468569731</v>
       </c>
       <c r="D22">
-        <v>1.029540025233272</v>
+        <v>1.027347005987866</v>
       </c>
       <c r="E22">
-        <v>1.023607911505215</v>
+        <v>1.0218189349594</v>
       </c>
       <c r="F22">
-        <v>1.034630279120288</v>
+        <v>1.032928362185765</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.050313213213854</v>
+        <v>1.049194343485376</v>
       </c>
       <c r="J22">
-        <v>1.03679434537107</v>
+        <v>1.034700001779314</v>
       </c>
       <c r="K22">
-        <v>1.044548155824267</v>
+        <v>1.042395506435771</v>
       </c>
       <c r="L22">
-        <v>1.038725762982791</v>
+        <v>1.036970201914669</v>
       </c>
       <c r="M22">
-        <v>1.049545564473911</v>
+        <v>1.047874557663954</v>
       </c>
       <c r="N22">
-        <v>1.038266712263471</v>
+        <v>1.03053523836858</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.047784345184798</v>
+        <v>1.046461867338588</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.042637486256383</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.041130903112616</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.023693197311115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.00772056705219</v>
+        <v>1.005313093631445</v>
       </c>
       <c r="D23">
-        <v>1.03044682978118</v>
+        <v>1.028067665993966</v>
       </c>
       <c r="E23">
-        <v>1.024647952926895</v>
+        <v>1.022670966542268</v>
       </c>
       <c r="F23">
-        <v>1.035610227181706</v>
+        <v>1.033746064868293</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.050650850375184</v>
+        <v>1.049414533711621</v>
       </c>
       <c r="J23">
-        <v>1.037474833941991</v>
+        <v>1.035168474610958</v>
       </c>
       <c r="K23">
-        <v>1.045138909461744</v>
+        <v>1.042802447209229</v>
       </c>
       <c r="L23">
-        <v>1.039444563478944</v>
+        <v>1.037503567074082</v>
       </c>
       <c r="M23">
-        <v>1.050210508840608</v>
+        <v>1.048379351496586</v>
       </c>
       <c r="N23">
-        <v>1.038948167206216</v>
+        <v>1.030480707702312</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.048310598632313</v>
+        <v>1.046861374434531</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.04304564026555</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.041408145224241</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.02376303594761</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.013118684986124</v>
+        <v>1.009960971260471</v>
       </c>
       <c r="D24">
-        <v>1.033986277544457</v>
+        <v>1.030962750629517</v>
       </c>
       <c r="E24">
-        <v>1.028701712631504</v>
+        <v>1.026082104644335</v>
       </c>
       <c r="F24">
-        <v>1.039431987307267</v>
+        <v>1.037011195397057</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.051954265227738</v>
+        <v>1.050317510925108</v>
       </c>
       <c r="J24">
-        <v>1.040120929016402</v>
+        <v>1.037080901021969</v>
       </c>
       <c r="K24">
-        <v>1.047441733222977</v>
+        <v>1.044467101258991</v>
       </c>
       <c r="L24">
-        <v>1.042242869009844</v>
+        <v>1.039666164518662</v>
       </c>
       <c r="M24">
-        <v>1.052800297085063</v>
+        <v>1.050418099436482</v>
       </c>
       <c r="N24">
-        <v>1.041598020039143</v>
+        <v>1.030592516539696</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.050360217664189</v>
+        <v>1.048474890896947</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.044666397381409</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.042576939140925</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.024062963739567</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.019198868929961</v>
+        <v>1.015571825594962</v>
       </c>
       <c r="D25">
-        <v>1.037995307935752</v>
+        <v>1.03452471553008</v>
       </c>
       <c r="E25">
-        <v>1.033297404305274</v>
+        <v>1.030275316504115</v>
       </c>
       <c r="F25">
-        <v>1.043768021424932</v>
+        <v>1.040984605396041</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.053393545400669</v>
+        <v>1.05149822986778</v>
       </c>
       <c r="J25">
-        <v>1.043096950045499</v>
+        <v>1.039586264446485</v>
       </c>
       <c r="K25">
-        <v>1.050031098353477</v>
+        <v>1.046609718644336</v>
       </c>
       <c r="L25">
-        <v>1.045399910715763</v>
+        <v>1.042421147562327</v>
       </c>
       <c r="M25">
-        <v>1.055722870108882</v>
+        <v>1.052978340041712</v>
       </c>
       <c r="N25">
-        <v>1.044578267359455</v>
+        <v>1.031902680909579</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.052673203607564</v>
+        <v>1.050501124820189</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.046494342492194</v>
+        <v>1.044088716599847</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.024482438721345</v>
       </c>
     </row>
   </sheetData>
